--- a/RMIS/wwwroot/kml/道路專案_改版.xlsx
+++ b/RMIS/wwwroot/kml/道路專案_改版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KingSu\Documents\RMIS\RMIS\wwwroot\kml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B50796-9ABF-45D1-BB19-1BB6538B0B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9832B7E1-F8BB-4978-BB41-D741086AF249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5745" yWindow="2205" windowWidth="16560" windowHeight="13395" xr2:uid="{1D14FEF6-0C0A-4856-9F1F-B688B7094887}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="16560" windowHeight="13395" xr2:uid="{1D14FEF6-0C0A-4856-9F1F-B688B7094887}"/>
   </bookViews>
   <sheets>
     <sheet name="道路專案" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
   <si>
     <t>road_id</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>pile_distance</t>
-  </si>
-  <si>
-    <t>pile_prop</t>
   </si>
   <si>
     <t>桃園市</t>
@@ -68,7 +65,31 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>{"專案代號": "wsx852", "提案人": "李家興議員", "行政區": "楊梅區", "起點": "新農街382巷", "終點": "中山北路一段390巷", "起訖位置": "新農街382巷至中山北路一段390巷", "道路長度": "60公尺", "現況路寬": "未開闢", "計畫路寬": "8公尺|都計道路", "公有土地": 2, "私有土地": 1, "公私土地": 0, "工程經費": "500萬", "用地經費": "3100萬", "補償經費": "0萬", "合計經費": "3600萬", "街景照片": {"wsx852.png": "24.911446, 121.158393"}, "備註": "通學道路可連接楊梅國小及楊明國中"}</t>
+    <t>pile_prop</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園區</t>
+  </si>
+  <si>
+    <t>泰昌五街至宏昌三街</t>
+  </si>
+  <si>
+    <t>平鎮區</t>
+  </si>
+  <si>
+    <t>中豐路一段至山頂段</t>
+  </si>
+  <si>
+    <t>{"專案代號": "wsx852", "提案人": "李家興議員", "行政區": "楊梅區", "起點": "新農街382巷", "終點": "中山北路一段390巷", "起訖位置": "新農街382巷至中山北路一段390巷", "道路長度": "60公尺", "現況路寬": "未開闢", "計畫路寬": "8公尺|都計道路", "公有土地": 2, "私有土地": 1, "公私土地": 0, "工程經費": "500萬", "用地經費": "3100萬", "補償經費": "0萬", "合計經費": "3600萬", "備註": "通學道路可連接楊梅國小及楊明國中", "街景照片": {"wsx852.png": ["24.911446, 121.158393"]}}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"專案代號": "qwe456", "提案人": "萬美玲議員", "行政區": "桃園區", "起點": "泰昌五街", "終點": "宏昌三街", "起訖位置": "泰昌五街至宏昌三街", "道路長度": "60公尺", "現況路寬": "未開闢", "計畫路寬": "8公尺|都計道路", "公有土地": 2, "私有土地": 1, "公私土地": 0, "工程經費": "500萬", "用地經費": "3100萬", "補償經費": "0萬", "合計經費": "3600萬", "備註": "地上有農作物", "街景照片": {"qwe456_01.png": ["24.956873, 121.208929"], "qwe456_02.png": ["24.957369, 121.206869"]}}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "專案代號": "zxc789", "提案人": "黃婉如議員", "行政區": "平鎮區", "起點": "中豐路一段", "終點": "山頂段", "起訖位置": "中豐路一段至山頂段", "道路長度": "60公尺", "現況路寬": "未開闢", "計畫路寬": "8公尺|都計道路", "公有土地": 2, "私有土地": 1, "公私土地": 0, "工程經費": "500萬", "用地經費": "3100萬", "補償經費": "0萬", "合計經費": "3600萬", "備註": "1. 公有土地97%，私有土地3%", "街景照片": { "zxc789_02.png": [ "24.911446, 121.158393" ], "zxc789_01.png": [ "24.955629, 121.215860" ] } }</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1021,13 +1042,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45396E2F-2651-4126-9E2A-CF41F1ACFA16}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1058,13 +1082,13 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1078,13 +1102,13 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1102,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1116,13 +1140,13 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1151,13 +1175,13 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1186,13 +1210,13 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1221,13 +1245,13 @@
         <v>38</v>
       </c>
       <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1256,13 +1280,13 @@
         <v>38</v>
       </c>
       <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1277,6 +1301,257 @@
         <v>1</v>
       </c>
       <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>24.957281999999999</v>
+      </c>
+      <c r="I8">
+        <v>121.206912</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>24.954635</v>
+      </c>
+      <c r="I9">
+        <v>121.20671900000001</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>24.954595999999999</v>
+      </c>
+      <c r="I10">
+        <v>121.208693</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>24.956873000000002</v>
+      </c>
+      <c r="I11">
+        <v>121.208929</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>24.956047000000002</v>
+      </c>
+      <c r="I12">
+        <v>121.21307</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>24.957322000000001</v>
+      </c>
+      <c r="I13">
+        <v>121.213285</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>24.955628999999998</v>
+      </c>
+      <c r="I14">
+        <v>121.21586000000001</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
         <v>0</v>
       </c>
     </row>

--- a/RMIS/wwwroot/kml/道路專案_改版.xlsx
+++ b/RMIS/wwwroot/kml/道路專案_改版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KingSu\Documents\RMIS\RMIS\wwwroot\kml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9832B7E1-F8BB-4978-BB41-D741086AF249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FD888B-6E92-4344-B0B2-D6DC7A5F923B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="16560" windowHeight="13395" xr2:uid="{1D14FEF6-0C0A-4856-9F1F-B688B7094887}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="16560" windowHeight="13395" xr2:uid="{1D14FEF6-0C0A-4856-9F1F-B688B7094887}"/>
   </bookViews>
   <sheets>
     <sheet name="道路專案" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>{ "專案代號": "zxc789", "提案人": "黃婉如議員", "行政區": "平鎮區", "起點": "中豐路一段", "終點": "山頂段", "起訖位置": "中豐路一段至山頂段", "道路長度": "60公尺", "現況路寬": "未開闢", "計畫路寬": "8公尺|都計道路", "公有土地": 2, "私有土地": 1, "公私土地": 0, "工程經費": "500萬", "用地經費": "3100萬", "補償經費": "0萬", "合計經費": "3600萬", "備註": "1. 公有土地97%，私有土地3%", "街景照片": { "zxc789_02.png": [ "24.911446, 121.158393" ], "zxc789_01.png": [ "24.955629, 121.215860" ] } }</t>
+    <t>{ "專案代號": "zxc789", "提案人": "黃婉如議員", "行政區": "平鎮區", "起點": "中豐路一段", "終點": "山頂段", "起訖位置": "中豐路一段至山頂段", "道路長度": "60公尺", "現況路寬": "未開闢", "計畫路寬": "8公尺|都計道路", "公有土地": 2, "私有土地": 1, "公私土地": 0, "工程經費": "500萬", "用地經費": "3100萬", "補償經費": "0萬", "合計經費": "3600萬", "備註": "1. 公有土地97%，私有土地3%", "街景照片": { "zxc789_123.png": [ "24.911446, 121.158393" ], "zxc789_456.png": [ "24.955629, 121.215860" ] } }</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>

--- a/RMIS/wwwroot/kml/道路專案_改版.xlsx
+++ b/RMIS/wwwroot/kml/道路專案_改版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KingSu\Documents\RMIS\RMIS\wwwroot\kml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FD888B-6E92-4344-B0B2-D6DC7A5F923B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5854FA-D142-41CE-9A23-38E1BB28E14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="16560" windowHeight="13395" xr2:uid="{1D14FEF6-0C0A-4856-9F1F-B688B7094887}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1D14FEF6-0C0A-4856-9F1F-B688B7094887}"/>
   </bookViews>
   <sheets>
     <sheet name="道路專案" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
-  <si>
-    <t>road_id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
   <si>
     <t>city_id</t>
   </si>
@@ -90,6 +87,28 @@
   </si>
   <si>
     <t>{ "專案代號": "zxc789", "提案人": "黃婉如議員", "行政區": "平鎮區", "起點": "中豐路一段", "終點": "山頂段", "起訖位置": "中豐路一段至山頂段", "道路長度": "60公尺", "現況路寬": "未開闢", "計畫路寬": "8公尺|都計道路", "公有土地": 2, "私有土地": 1, "公私土地": 0, "工程經費": "500萬", "用地經費": "3100萬", "補償經費": "0萬", "合計經費": "3600萬", "備註": "1. 公有土地97%，私有土地3%", "街景照片": { "zxc789_123.png": [ "24.911446, 121.158393" ], "zxc789_456.png": [ "24.955629, 121.215860" ] } }</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>road_id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>qwe456</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wsx852</t>
+  </si>
+  <si>
+    <t>wsx852</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>qwe456</t>
+  </si>
+  <si>
+    <t>zxc789</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1045,7 +1064,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1055,45 +1074,45 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>24</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -1102,13 +1121,13 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1126,12 +1145,12 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>24</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1140,13 +1159,13 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1165,8 +1184,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
+      <c r="A4" t="s">
+        <v>23</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1175,13 +1194,13 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1200,8 +1219,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
+      <c r="A5" t="s">
+        <v>23</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -1210,13 +1229,13 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1235,8 +1254,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
+      <c r="A6" t="s">
+        <v>23</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1245,13 +1264,13 @@
         <v>38</v>
       </c>
       <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1270,8 +1289,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
+      <c r="A7" t="s">
+        <v>23</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1280,13 +1299,13 @@
         <v>38</v>
       </c>
       <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1305,8 +1324,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
+      <c r="A8" t="s">
+        <v>22</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -1315,13 +1334,13 @@
         <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1339,12 +1358,12 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
+      <c r="A9" t="s">
+        <v>22</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1353,13 +1372,13 @@
         <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
         <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1378,8 +1397,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
+      <c r="A10" t="s">
+        <v>25</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1388,13 +1407,13 @@
         <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
         <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1413,8 +1432,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
+      <c r="A11" t="s">
+        <v>25</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -1423,13 +1442,13 @@
         <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
         <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1448,8 +1467,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>3</v>
+      <c r="A12" t="s">
+        <v>26</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1458,13 +1477,13 @@
         <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
         <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1482,12 +1501,12 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>3</v>
+      <c r="A13" t="s">
+        <v>26</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1496,13 +1515,13 @@
         <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
         <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1521,8 +1540,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>3</v>
+      <c r="A14" t="s">
+        <v>26</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1531,13 +1550,13 @@
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
         <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
       </c>
       <c r="G14">
         <v>0</v>

--- a/RMIS/wwwroot/kml/道路專案_改版.xlsx
+++ b/RMIS/wwwroot/kml/道路專案_改版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KingSu\Documents\RMIS\RMIS\wwwroot\kml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5854FA-D142-41CE-9A23-38E1BB28E14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88073198-4CAD-4D8E-B5E4-C7C79C4D3440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1D14FEF6-0C0A-4856-9F1F-B688B7094887}"/>
+    <workbookView xWindow="5670" yWindow="1965" windowWidth="16560" windowHeight="13395" xr2:uid="{1D14FEF6-0C0A-4856-9F1F-B688B7094887}"/>
   </bookViews>
   <sheets>
     <sheet name="道路專案" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="24">
   <si>
     <t>city_id</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>桃園市</t>
-  </si>
-  <si>
-    <t>楊梅區</t>
   </si>
   <si>
     <t>新農街382巷至中山北路一段390巷</t>
@@ -66,49 +63,44 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>桃園區</t>
-  </si>
-  <si>
     <t>泰昌五街至宏昌三街</t>
   </si>
   <si>
-    <t>平鎮區</t>
-  </si>
-  <si>
     <t>中豐路一段至山頂段</t>
-  </si>
-  <si>
-    <t>{"專案代號": "wsx852", "提案人": "李家興議員", "行政區": "楊梅區", "起點": "新農街382巷", "終點": "中山北路一段390巷", "起訖位置": "新農街382巷至中山北路一段390巷", "道路長度": "60公尺", "現況路寬": "未開闢", "計畫路寬": "8公尺|都計道路", "公有土地": 2, "私有土地": 1, "公私土地": 0, "工程經費": "500萬", "用地經費": "3100萬", "補償經費": "0萬", "合計經費": "3600萬", "備註": "通學道路可連接楊梅國小及楊明國中", "街景照片": {"wsx852.png": ["24.911446, 121.158393"]}}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"專案代號": "qwe456", "提案人": "萬美玲議員", "行政區": "桃園區", "起點": "泰昌五街", "終點": "宏昌三街", "起訖位置": "泰昌五街至宏昌三街", "道路長度": "60公尺", "現況路寬": "未開闢", "計畫路寬": "8公尺|都計道路", "公有土地": 2, "私有土地": 1, "公私土地": 0, "工程經費": "500萬", "用地經費": "3100萬", "補償經費": "0萬", "合計經費": "3600萬", "備註": "地上有農作物", "街景照片": {"qwe456_01.png": ["24.956873, 121.208929"], "qwe456_02.png": ["24.957369, 121.206869"]}}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "專案代號": "zxc789", "提案人": "黃婉如議員", "行政區": "平鎮區", "起點": "中豐路一段", "終點": "山頂段", "起訖位置": "中豐路一段至山頂段", "道路長度": "60公尺", "現況路寬": "未開闢", "計畫路寬": "8公尺|都計道路", "公有土地": 2, "私有土地": 1, "公私土地": 0, "工程經費": "500萬", "用地經費": "3100萬", "補償經費": "0萬", "合計經費": "3600萬", "備註": "1. 公有土地97%，私有土地3%", "街景照片": { "zxc789_123.png": [ "24.911446, 121.158393" ], "zxc789_456.png": [ "24.955629, 121.215860" ] } }</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>road_id</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>qwe456</t>
+    <t>qqq123</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>wsx852</t>
-  </si>
-  <si>
-    <t>wsx852</t>
+    <t>aaa456</t>
+  </si>
+  <si>
+    <t>aaa456</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>qwe456</t>
-  </si>
-  <si>
-    <t>zxc789</t>
+    <t>zzz789</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘆竹區</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"專案代號": "qqq123", "提案人": "李家興議員", "行政區": "蘆竹區", "起點": "新農街382巷", "終點": "中山北路一段390巷", "起訖位置": "新農街382巷至中山北路一段390巷", "道路長度": "60公尺", "現況路寬": "未開闢", "計畫路寬": "8公尺|都計道路", "公有土地": 2, "私有土地": 1, "公私土地": 0, "工程經費": "500萬", "用地經費": "3100萬", "補償經費": "0萬", "合計經費": "3600萬", "備註": "通學道路可連接楊梅國小及楊明國中", "街景照片": {"wsx852.png": ["24.911446, 121.158393"]}}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "專案代號": "zzz789", "提案人": "黃婉如議員", "行政區": "蘆竹區", "起點": "中豐路一段", "終點": "山頂段", "起訖位置": "中豐路一段至山頂段", "道路長度": "60公尺", "現況路寬": "未開闢", "計畫路寬": "8公尺|都計道路", "公有土地": 2, "私有土地": 1, "公私土地": 0, "工程經費": "200萬", "用地經費": "3100萬", "補償經費": "0萬", "合計經費": "3300萬", "備註": "1. 公有土地97%，私有土地3%", "街景照片": { "zxc789_123.png": [ "24.911446, 121.158393" ], "zxc789_456.png": [ "24.955629, 121.215860" ] } }</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"專案代號": "aaa456", "提案人": "萬美玲議員", "行政區": "蘆竹區", "起點": "泰昌五街", "終點": "宏昌三街", "起訖位置": "泰昌五街至宏昌三街", "道路長度": "60公尺", "現況路寬": "未開闢", "計畫路寬": "8公尺|都計道路", "公有土地": 2, "私有土地": 1, "公私土地": 0, "工程經費": "700萬", "用地經費": "3100萬", "補償經費": "0萬", "合計經費": "3800萬", "備註": "地上有農作物", "街景照片": {"qwe456_01.png": ["24.956873, 121.208929"], "qwe456_02.png": ["24.957369, 121.206869"]}}</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1064,7 +1056,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1074,7 +1066,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1101,18 +1093,18 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
       </c>
       <c r="L1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -1124,10 +1116,10 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1145,12 +1137,12 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1162,10 +1154,10 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1185,7 +1177,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1197,10 +1189,10 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
         <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1220,7 +1212,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -1232,10 +1224,10 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
         <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1255,7 +1247,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1267,10 +1259,10 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
         <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1290,7 +1282,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1302,10 +1294,10 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
         <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1325,7 +1317,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -1337,10 +1329,10 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1358,12 +1350,12 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1375,10 +1367,10 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1398,7 +1390,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1410,10 +1402,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1433,7 +1425,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -1445,10 +1437,10 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1468,7 +1460,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1480,10 +1472,10 @@
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1501,12 +1493,12 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1518,10 +1510,10 @@
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1541,7 +1533,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1553,10 +1545,10 @@
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G14">
         <v>0</v>
